--- a/RT Akses Dasar/2019_akses.xlsx
+++ b/RT Akses Dasar/2019_akses.xlsx
@@ -1,41 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/dhiya_muharram_binus_ac_id/Documents/0. Lomba &amp; Sertifikat Dokum/Data Slayer/Github/dataset-slayer/RT Akses Dasar/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_40EF431FB0993844826102AB8855B237A12C792E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66D1E1B-0B3B-48ED-B8F5-FFD0C1582D3C}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+  <si>
+    <t>38 Provinsi</t>
+  </si>
+  <si>
+    <t>Proporsi rumah tangga dengan akses terhadap pelayanan dasar menurut provinsi (Persen)</t>
+  </si>
+  <si>
+    <t>Akses pada layanan air minum</t>
+  </si>
+  <si>
+    <t>Akses pada layanan sanitasi dasar</t>
+  </si>
+  <si>
+    <t>Akses pada mobilitas dasar</t>
+  </si>
+  <si>
+    <t>Akses pada fasilitas kesehatan dasar</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KEP. BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEP. RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT DAYA</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>PAPUA SELATAN</t>
+  </si>
+  <si>
+    <t>PAPUA TENGAH</t>
+  </si>
+  <si>
+    <t>PAPUA PEGUNUNGAN</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,7 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -72,6 +207,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,37 +539,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>38 Provinsi</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>Proporsi rumah tangga dengan akses terhadap pelayanan dasar menurut provinsi (Persen)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>Akses pada layanan air minum</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Akses pada layanan sanitasi dasar</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Akses pada mobilitas dasar</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Akses pada fasilitas kesehatan dasar</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
       <c r="B4">
         <v>2019</v>
       </c>
@@ -440,43 +592,43 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ACEH</v>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>33.77</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="C5">
         <v>73.16</v>
       </c>
-      <c r="D5" t="str">
-        <v>-</v>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
       <c r="E5">
         <v>64</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SUMATERA UTARA</v>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C6">
         <v>79.59</v>
       </c>
-      <c r="D6" t="str">
-        <v>-</v>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>71.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SUMATERA BARAT</v>
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>35.94</v>
@@ -484,50 +636,50 @@
       <c r="C7">
         <v>63.98</v>
       </c>
-      <c r="D7" t="str">
-        <v>-</v>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
       <c r="E7">
         <v>78.8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>RIAU</v>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>35.66</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="C8">
-        <v>80.04</v>
-      </c>
-      <c r="D8" t="str">
-        <v>-</v>
+        <v>80.040000000000006</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
       <c r="E8">
         <v>72.11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>JAMBI</v>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>46.26</v>
       </c>
       <c r="C9">
-        <v>75.6</v>
-      </c>
-      <c r="D9" t="str">
-        <v>-</v>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9">
         <v>71.47</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>SUMATERA SELATAN</v>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>47.13</v>
@@ -535,33 +687,33 @@
       <c r="C10">
         <v>74.67</v>
       </c>
-      <c r="D10" t="str">
-        <v>-</v>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
       <c r="E10">
         <v>73.84</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>BENGKULU</v>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="C11">
         <v>75.91</v>
       </c>
-      <c r="D11" t="str">
-        <v>-</v>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
       <c r="E11">
         <v>77.81</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>LAMPUNG</v>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>44.18</v>
@@ -569,16 +721,16 @@
       <c r="C12">
         <v>79.22</v>
       </c>
-      <c r="D12" t="str">
-        <v>-</v>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
       <c r="E12">
         <v>74.73</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>KEP. BANGKA BELITUNG</v>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
         <v>21.06</v>
@@ -586,16 +738,16 @@
       <c r="C13">
         <v>90.32</v>
       </c>
-      <c r="D13" t="str">
-        <v>-</v>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
       <c r="E13">
         <v>85.35</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>KEP. RIAU</v>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
         <v>16.46</v>
@@ -603,16 +755,16 @@
       <c r="C14">
         <v>89.13</v>
       </c>
-      <c r="D14" t="str">
-        <v>-</v>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>74.49</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>DKI JAKARTA</v>
+        <v>74.489999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="B15">
         <v>27.48</v>
@@ -620,50 +772,50 @@
       <c r="C15">
         <v>92.89</v>
       </c>
-      <c r="D15" t="str">
-        <v>-</v>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>73.18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>JAWA BARAT</v>
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C16">
         <v>69.64</v>
       </c>
-      <c r="D16" t="str">
-        <v>-</v>
+      <c r="D16" t="s">
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>76.82</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>JAWA TENGAH</v>
+        <v>76.819999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
         <v>56.98</v>
       </c>
       <c r="C17">
-        <v>80.29</v>
-      </c>
-      <c r="D17" t="str">
-        <v>-</v>
+        <v>80.290000000000006</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
       <c r="E17">
         <v>81.22</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>DI YOGYAKARTA</v>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18">
         <v>58.91</v>
@@ -671,16 +823,16 @@
       <c r="C18">
         <v>94.67</v>
       </c>
-      <c r="D18" t="str">
-        <v>-</v>
+      <c r="D18" t="s">
+        <v>7</v>
       </c>
       <c r="E18">
         <v>80.89</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>JAWA TIMUR</v>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
       <c r="B19">
         <v>52.38</v>
@@ -688,33 +840,33 @@
       <c r="C19">
         <v>78.78</v>
       </c>
-      <c r="D19" t="str">
-        <v>-</v>
+      <c r="D19" t="s">
+        <v>7</v>
       </c>
       <c r="E19">
         <v>77.08</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>BANTEN</v>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20">
         <v>34.42</v>
       </c>
       <c r="C20">
-        <v>81.01</v>
-      </c>
-      <c r="D20" t="str">
-        <v>-</v>
+        <v>81.010000000000005</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
       <c r="E20">
         <v>74.19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>BALI</v>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21">
         <v>43.49</v>
@@ -722,16 +874,16 @@
       <c r="C21">
         <v>94.59</v>
       </c>
-      <c r="D21" t="str">
-        <v>-</v>
+      <c r="D21" t="s">
+        <v>7</v>
       </c>
       <c r="E21">
         <v>88.33</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>NUSA TENGGARA BARAT</v>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
         <v>49.12</v>
@@ -739,16 +891,16 @@
       <c r="C22">
         <v>80.02</v>
       </c>
-      <c r="D22" t="str">
-        <v>-</v>
+      <c r="D22" t="s">
+        <v>7</v>
       </c>
       <c r="E22">
         <v>71.47</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>NUSA TENGGARA TIMUR</v>
+    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
       </c>
       <c r="B23">
         <v>28.96</v>
@@ -756,16 +908,16 @@
       <c r="C23">
         <v>64.55</v>
       </c>
-      <c r="D23" t="str">
-        <v>-</v>
+      <c r="D23" t="s">
+        <v>7</v>
       </c>
       <c r="E23">
         <v>51.92</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>KALIMANTAN BARAT</v>
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
       </c>
       <c r="B24">
         <v>50.62</v>
@@ -773,16 +925,16 @@
       <c r="C24">
         <v>72.08</v>
       </c>
-      <c r="D24" t="str">
-        <v>-</v>
+      <c r="D24" t="s">
+        <v>7</v>
       </c>
       <c r="E24">
         <v>71.31</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>KALIMANTAN TENGAH</v>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
       <c r="B25">
         <v>26.64</v>
@@ -790,16 +942,16 @@
       <c r="C25">
         <v>69.23</v>
       </c>
-      <c r="D25" t="str">
-        <v>-</v>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
       <c r="E25">
         <v>77.16</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>KALIMANTAN SELATAN</v>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
       </c>
       <c r="B26">
         <v>37.21</v>
@@ -807,16 +959,16 @@
       <c r="C26">
         <v>76.56</v>
       </c>
-      <c r="D26" t="str">
-        <v>-</v>
+      <c r="D26" t="s">
+        <v>7</v>
       </c>
       <c r="E26">
         <v>85.39</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>KALIMANTAN TIMUR</v>
+    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
       </c>
       <c r="B27">
         <v>17.66</v>
@@ -824,16 +976,16 @@
       <c r="C27">
         <v>89.27</v>
       </c>
-      <c r="D27" t="str">
-        <v>-</v>
+      <c r="D27" t="s">
+        <v>7</v>
       </c>
       <c r="E27">
         <v>75.84</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>KALIMANTAN UTARA</v>
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
       </c>
       <c r="B28">
         <v>20.16</v>
@@ -841,50 +993,50 @@
       <c r="C28">
         <v>77.2</v>
       </c>
-      <c r="D28" t="str">
-        <v>-</v>
+      <c r="D28" t="s">
+        <v>7</v>
       </c>
       <c r="E28">
         <v>83.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>SULAWESI UTARA</v>
+    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>34.45</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="C29">
         <v>82.36</v>
       </c>
-      <c r="D29" t="str">
-        <v>-</v>
+      <c r="D29" t="s">
+        <v>7</v>
       </c>
       <c r="E29">
         <v>83.12</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>SULAWESI TENGAH</v>
+    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>35.48</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="C30">
         <v>71.95</v>
       </c>
-      <c r="D30" t="str">
-        <v>-</v>
+      <c r="D30" t="s">
+        <v>7</v>
       </c>
       <c r="E30">
         <v>81.38</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>SULAWESI SELATAN</v>
+    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
         <v>44.25</v>
@@ -892,16 +1044,16 @@
       <c r="C31">
         <v>87.8</v>
       </c>
-      <c r="D31" t="str">
-        <v>-</v>
+      <c r="D31" t="s">
+        <v>7</v>
       </c>
       <c r="E31">
         <v>85.34</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>SULAWESI TENGGARA</v>
+    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
       </c>
       <c r="B32">
         <v>41.45</v>
@@ -909,50 +1061,50 @@
       <c r="C32">
         <v>79.75</v>
       </c>
-      <c r="D32" t="str">
-        <v>-</v>
+      <c r="D32" t="s">
+        <v>7</v>
       </c>
       <c r="E32">
         <v>82.97</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>GORONTALO</v>
+    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="C33">
-        <v>74.57</v>
-      </c>
-      <c r="D33" t="str">
-        <v>-</v>
+        <v>74.569999999999993</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>79.71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>SULAWESI BARAT</v>
+        <v>79.709999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C34">
         <v>73.39</v>
       </c>
-      <c r="D34" t="str">
-        <v>-</v>
+      <c r="D34" t="s">
+        <v>7</v>
       </c>
       <c r="E34">
         <v>80.77</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>MALUKU</v>
+    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
       <c r="B35">
         <v>29.38</v>
@@ -960,16 +1112,16 @@
       <c r="C35">
         <v>70</v>
       </c>
-      <c r="D35" t="str">
-        <v>-</v>
+      <c r="D35" t="s">
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>75.6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>MALUKU UTARA</v>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>38</v>
       </c>
       <c r="B36">
         <v>39.6</v>
@@ -977,16 +1129,16 @@
       <c r="C36">
         <v>72.52</v>
       </c>
-      <c r="D36" t="str">
-        <v>-</v>
+      <c r="D36" t="s">
+        <v>7</v>
       </c>
       <c r="E36">
         <v>72.81</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>PAPUA BARAT</v>
+    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
       </c>
       <c r="B37">
         <v>32.06</v>
@@ -994,101 +1146,101 @@
       <c r="C37">
         <v>76.39</v>
       </c>
-      <c r="D37" t="str">
-        <v>-</v>
+      <c r="D37" t="s">
+        <v>7</v>
       </c>
       <c r="E37">
         <v>69.47</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>PAPUA BARAT DAYA</v>
-      </c>
-      <c r="B38" t="str">
-        <v>-</v>
-      </c>
-      <c r="C38" t="str">
-        <v>-</v>
-      </c>
-      <c r="D38" t="str">
-        <v>-</v>
-      </c>
-      <c r="E38" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>PAPUA</v>
+    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
       </c>
       <c r="B39">
         <v>24.64</v>
       </c>
       <c r="C39">
-        <v>38.27</v>
-      </c>
-      <c r="D39" t="str">
-        <v>-</v>
+        <v>38.270000000000003</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>35.55</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>PAPUA SELATAN</v>
-      </c>
-      <c r="B40" t="str">
-        <v>-</v>
-      </c>
-      <c r="C40" t="str">
-        <v>-</v>
-      </c>
-      <c r="D40" t="str">
-        <v>-</v>
-      </c>
-      <c r="E40" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>PAPUA TENGAH</v>
-      </c>
-      <c r="B41" t="str">
-        <v>-</v>
-      </c>
-      <c r="C41" t="str">
-        <v>-</v>
-      </c>
-      <c r="D41" t="str">
-        <v>-</v>
-      </c>
-      <c r="E41" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>PAPUA PEGUNUNGAN</v>
-      </c>
-      <c r="B42" t="str">
-        <v>-</v>
-      </c>
-      <c r="C42" t="str">
-        <v>-</v>
-      </c>
-      <c r="D42" t="str">
-        <v>-</v>
-      </c>
-      <c r="E42" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>INDONESIA</v>
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>45</v>
       </c>
       <c r="B43">
         <v>42.84</v>
@@ -1096,11 +1248,11 @@
       <c r="C43">
         <v>77.39</v>
       </c>
-      <c r="D43" t="str">
-        <v>-</v>
+      <c r="D43" t="s">
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>76.07</v>
+        <v>76.069999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1108,8 +1260,9 @@
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E43"/>
+    <ignoredError sqref="A1:E43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>